--- a/TestYantraProject/files/Book1.xlsx
+++ b/TestYantraProject/files/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_IDE_Workspace\TestYantraProject\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRANABENDU\git\SDET49\TestYantraProject\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC67C858-2A09-4EA4-9715-F7F273637006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA942F-9180-4199-A230-E7E61F422CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9550" yWindow="2060" windowWidth="9650" windowHeight="7980" xr2:uid="{2D114C2A-5909-46C5-A20D-15045562CA3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D114C2A-5909-46C5-A20D-15045562CA3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,12 +129,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,85 +168,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -261,251 +213,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -864,7 +576,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -902,7 +614,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -913,7 +625,7 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -924,7 +636,7 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -935,21 +647,23 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -957,10 +671,10 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -968,10 +682,10 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -980,34 +694,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"USERNAME"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"USERNAME"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B2">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"PASSWORD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B11">
-    <cfRule type="uniqueValues" dxfId="11" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B11">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"PASSWORD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"PASSWORD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"USERNAME"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"USERNAME"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"PASSWORD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"PASSWORD"</formula>
-    </cfRule>
+    <cfRule type="uniqueValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{716061B0-2E44-4872-BD00-C7F0A809160C}"/>

--- a/TestYantraProject/files/Book1.xlsx
+++ b/TestYantraProject/files/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRANABENDU\git\SDET49\TestYantraProject\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA942F-9180-4199-A230-E7E61F422CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE645E42-8B96-49B8-8529-2CC9B65315BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D114C2A-5909-46C5-A20D-15045562CA3A}"/>
   </bookViews>
@@ -168,19 +168,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -251,6 +262,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -265,7 +286,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F7D61DE-4977-480F-8929-174CBF4CCABE}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F7D61DE-4977-480F-8929-174CBF4CCABE}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" tableBorderDxfId="7">
   <autoFilter ref="A1:C11" xr:uid="{1F7D61DE-4977-480F-8929-174CBF4CCABE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DCABEEE3-6EA9-404F-82BB-433CB786D353}" name="USERNAME" dataCellStyle="Hyperlink"/>
@@ -573,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F109918-6FF8-42DC-9555-EAB499B77194}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,112 +606,121 @@
     <col min="2" max="2" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
